--- a/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/100% hybrid.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/100% hybrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\Indipendent Power Supply for Feed Mills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C637E6F-CEF0-4118-855A-EFB7878261FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A9352-73DC-4F14-B88F-7F997C824D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="292">
   <si>
     <t>Maize</t>
   </si>
@@ -903,6 +903,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>ΔCO2</t>
+  </si>
+  <si>
+    <t>Additional CO2 emissions in the mini-grid</t>
+  </si>
+  <si>
+    <t>Gg</t>
   </si>
 </sst>
 </file>
@@ -3227,10 +3236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3517,80 +3526,86 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15">
+        <f>C2*278.740958688/1000</f>
+        <v>5.574819173759999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>291</v>
+      </c>
+      <c r="J15" t="s">
+        <v>263</v>
+      </c>
+      <c r="K15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>249</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="7">
         <f>C7*C6</f>
         <v>113.27311133915053</v>
       </c>
-      <c r="D15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" s="3">
-        <f>C15*C3</f>
-        <v>113.27311133915053</v>
-      </c>
       <c r="D16" t="s">
         <v>235</v>
       </c>
-      <c r="J16" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="3">
-        <f>-C16</f>
-        <v>-113.27311133915053</v>
+        <f>C16*C3</f>
+        <v>113.27311133915053</v>
       </c>
       <c r="D17" t="s">
         <v>235</v>
       </c>
       <c r="J17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C18" s="3">
-        <f>C16*C8</f>
-        <v>16.07267502356002</v>
+        <f>-C17</f>
+        <v>-113.27311133915053</v>
       </c>
       <c r="D18" t="s">
         <v>235</v>
       </c>
+      <c r="J18" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C19">
-        <f>C17*C9</f>
-        <v>-27.240673127325429</v>
+        <v>270</v>
+      </c>
+      <c r="C19" s="3">
+        <f>C17*C8</f>
+        <v>16.07267502356002</v>
       </c>
       <c r="D19" t="s">
         <v>235</v>
@@ -3598,97 +3613,112 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20">
+        <f>C18*C9</f>
+        <v>-27.240673127325429</v>
+      </c>
+      <c r="D20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>281</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>280</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C21" s="10">
         <f>C14*C5</f>
         <v>47.635639999999995</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>235</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J21" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>282</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C22" s="10">
         <f>C11*C5</f>
         <v>8.2940390000000015</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>235</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>284</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>285</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C23" s="10">
         <f>C12*C5</f>
         <v>0.10206949999999999</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>235</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J23" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>286</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>287</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C24" s="10">
         <f>C13*C5</f>
         <v>1.0029500000000002</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>235</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>256</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <f>-C10*C5*C4</f>
         <v>-6.5429471510261834</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>235</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E29 E2:E15" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:E30 E2:E16" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3734,7 +3764,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="3">
-        <f>main!C20</f>
+        <f>main!C21</f>
         <v>47.635639999999995</v>
       </c>
     </row>
@@ -3801,7 +3831,7 @@
         <v>239</v>
       </c>
       <c r="F2" s="3">
-        <f>main!C17</f>
+        <f>main!C18</f>
         <v>-113.27311133915053</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3825,7 +3855,7 @@
         <v>239</v>
       </c>
       <c r="F3" s="3">
-        <f>main!C18</f>
+        <f>main!C19</f>
         <v>16.07267502356002</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -3849,7 +3879,7 @@
         <v>239</v>
       </c>
       <c r="F4" s="3">
-        <f>main!C19</f>
+        <f>main!C20</f>
         <v>-27.240673127325429</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -3949,7 +3979,7 @@
         <v>239</v>
       </c>
       <c r="G2" s="6">
-        <f>main!C16</f>
+        <f>main!C17</f>
         <v>113.27311133915053</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -3976,7 +4006,7 @@
         <v>239</v>
       </c>
       <c r="G3" s="6">
-        <f>main!C21</f>
+        <f>main!C22</f>
         <v>8.2940390000000015</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -4003,7 +4033,7 @@
         <v>239</v>
       </c>
       <c r="G4" s="10">
-        <f>main!C22</f>
+        <f>main!C23</f>
         <v>0.10206949999999999</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -4030,7 +4060,7 @@
         <v>239</v>
       </c>
       <c r="G5" s="10">
-        <f>main!C23</f>
+        <f>main!C24</f>
         <v>1.0029500000000002</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -4057,7 +4087,7 @@
         <v>239</v>
       </c>
       <c r="G6" s="3">
-        <f>main!C24</f>
+        <f>main!C25</f>
         <v>-6.5429471510261834</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -4091,15 +4121,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -4120,32 +4152,32 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" s="3"/>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="3">
+        <f>main!C15</f>
+        <v>5.574819173759999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{4C1B31E5-CC07-48D9-B810-6A15BDABDEE4}">
       <formula1>"Percentage,Absolute"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$C$1:$C$291</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
-          <x14:formula1>
-            <xm:f>indeces!$A$1:$A$111</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/100% hybrid.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/100% hybrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\Indipendent Power Supply for Feed Mills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A9352-73DC-4F14-B88F-7F997C824D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02670C5-6AFD-48BC-B2ED-70EDD9D8870F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -3238,8 +3238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3296,7 +3296,7 @@
         <v>251</v>
       </c>
       <c r="C2" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>255</v>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C10" s="9">
         <f>C2*323667.927332485/1000000</f>
-        <v>6.4733585466496999</v>
+        <v>6.1496906193172149</v>
       </c>
       <c r="D10" t="s">
         <v>227</v>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="C11" s="9">
         <f>C2*127.6006/1000</f>
-        <v>2.5520120000000004</v>
+        <v>2.4244113999999999</v>
       </c>
       <c r="D11" t="s">
         <v>230</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="C12" s="9">
         <f>C2*1.5703/1000</f>
-        <v>3.1405999999999996E-2</v>
+        <v>2.98357E-2</v>
       </c>
       <c r="D12" t="s">
         <v>230</v>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="C13" s="9">
         <f>15.43*C2/1000</f>
-        <v>0.30860000000000004</v>
+        <v>0.29317000000000004</v>
       </c>
       <c r="D13" t="s">
         <v>230</v>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="C14" s="9">
         <f>C2*0.732856</f>
-        <v>14.657119999999999</v>
+        <v>13.924263999999999</v>
       </c>
       <c r="D14" t="s">
         <v>230</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="C15">
         <f>C2*278.740958688/1000</f>
-        <v>5.574819173759999</v>
+        <v>5.2960782150719998</v>
       </c>
       <c r="D15" t="s">
         <v>291</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="C21" s="10">
         <f>C14*C5</f>
-        <v>47.635639999999995</v>
+        <v>45.253857999999994</v>
       </c>
       <c r="D21" t="s">
         <v>235</v>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="C22" s="10">
         <f>C11*C5</f>
-        <v>8.2940390000000015</v>
+        <v>7.8793370499999993</v>
       </c>
       <c r="D22" t="s">
         <v>235</v>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C23" s="10">
         <f>C12*C5</f>
-        <v>0.10206949999999999</v>
+        <v>9.6966024999999997E-2</v>
       </c>
       <c r="D23" t="s">
         <v>235</v>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C24" s="10">
         <f>C13*C5</f>
-        <v>1.0029500000000002</v>
+        <v>0.95280250000000011</v>
       </c>
       <c r="D24" t="s">
         <v>235</v>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="C25" s="3">
         <f>-C10*C5*C4</f>
-        <v>-6.5429471510261834</v>
+        <v>-6.2157997934748748</v>
       </c>
       <c r="D25" t="s">
         <v>235</v>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="C2" s="3">
         <f>main!C21</f>
-        <v>47.635639999999995</v>
+        <v>45.253857999999994</v>
       </c>
     </row>
   </sheetData>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="G3" s="6">
         <f>main!C22</f>
-        <v>8.2940390000000015</v>
+        <v>7.8793370499999993</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>288</v>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="G4" s="10">
         <f>main!C23</f>
-        <v>0.10206949999999999</v>
+        <v>9.6966024999999997E-2</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>288</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="G5" s="10">
         <f>main!C24</f>
-        <v>1.0029500000000002</v>
+        <v>0.95280250000000011</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>288</v>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="G6" s="3">
         <f>main!C25</f>
-        <v>-6.5429471510261834</v>
+        <v>-6.2157997934748748</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>288</v>
@@ -4123,7 +4123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="E2" s="3">
         <f>main!C15</f>
-        <v>5.574819173759999</v>
+        <v>5.2960782150719998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
